--- a/back-end/剧本信息/角色设定/characters.xlsx
+++ b/back-end/剧本信息/角色设定/characters.xlsx
@@ -14,96 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>身份</t>
-  </si>
-  <si>
-    <t>性格</t>
-  </si>
-  <si>
-    <t>经历</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>李钢</t>
-  </si>
-  <si>
-    <t>前军事工程师</t>
-  </si>
-  <si>
-    <t>冷静，机智，有些孤僻</t>
-  </si>
-  <si>
-    <t>在战争前，李钢是一名军事工程师，负责维护和研发各种武器装备。灾难发生后，他失去了所有的家人，现在在废土中作为一个自由的技匠和修复师生存。</t>
-  </si>
-  <si>
-    <t>寻找一个安全的角落，利用自己的技术知识为幸存者提供帮助，同时寻找可能存在的其他幸存者家庭，重建一个和平的社区。</t>
-  </si>
-  <si>
-    <t>赵红</t>
-  </si>
-  <si>
-    <t>避难所医生</t>
-  </si>
-  <si>
-    <t>坚韧，仁慈，有时候过于理想化</t>
-  </si>
-  <si>
-    <t>赵红在避难所中长大，她的父母都是医生。她继承了父母的事业，在废土中为伤者提供医疗救治，但她逐渐对避难所内部的争斗和腐败感到失望。</t>
-  </si>
-  <si>
-    <t>希望能够找到一个办法，让医疗资源更加公平地分配，同时寻找一种可以清除辐射尘的方法，以改善废土的环境。</t>
-  </si>
-  <si>
-    <t>林战</t>
-  </si>
-  <si>
-    <t>流浪战士</t>
-  </si>
-  <si>
-    <t>勇敢，果断，有强烈的正义感</t>
-  </si>
-  <si>
-    <t>林战曾经是一个部落的战士，但因为部落首领的背叛而流亡。他在荒野中生存，成为了众所周知的战斗高手。</t>
-  </si>
-  <si>
-    <t>寻找那位背叛者并报仇，同时寻找一个真正值得他效忠的领袖，帮助那个领袖统一废土，带来和平。</t>
-  </si>
-  <si>
-    <t>王铁手</t>
-  </si>
-  <si>
-    <t>机械师和载具改造师</t>
-  </si>
-  <si>
-    <t>聪明，狡猾，有些自私</t>
-  </si>
-  <si>
-    <t>王铁手在战争前就是一名顶尖的机械师，灾难发生后，他凭借自己的技能在废土中生存下来，并成为了一个小有名气的载具改造师。</t>
-  </si>
-  <si>
-    <t>提升自己的社会地位，通过技术优势控制更多的资源，并寻找战前的高级技术，以巩固自己的权力和影响力。</t>
-  </si>
-  <si>
-    <t>宋希望</t>
-  </si>
-  <si>
-    <t>农民起义领袖</t>
-  </si>
-  <si>
-    <t>热情，有远见，富有同情心</t>
-  </si>
-  <si>
-    <t>宋希望在避难所外的一个小农场长大，见证了农民阶层被剥削和压迫。她组织了起义，希望为农民争取更多的权益。</t>
-  </si>
-  <si>
-    <t>推翻当前的不公体制，建立一个更加公平的幸存者社区，让所有人都能有尊严地生活在这片废土上。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>角色名字</t>
+  </si>
+  <si>
+    <t>角色介绍</t>
+  </si>
+  <si>
+    <t>杰克</t>
+  </si>
+  <si>
+    <t>年轻勇敢的少年，因祖父的藏宝图而踏上了寻宝之旅，是故事的主人公。</t>
+  </si>
+  <si>
+    <t>莉莉</t>
+  </si>
+  <si>
+    <t>机智聪明的女孩，与杰克在寻宝途中相遇，并成为他的伙伴，为寻宝小队带来了许多关键性的智慧。</t>
+  </si>
+  <si>
+    <t>巴克</t>
+  </si>
+  <si>
+    <t>忠诚的小狗，陪伴杰克和莉莉共同克服困难，是寻宝途中的重要成员。</t>
+  </si>
+  <si>
+    <t>祖父</t>
+  </si>
+  <si>
+    <t>杰克的祖父，已故，留下了一张神秘的藏宝图，引发了整个故事。</t>
+  </si>
+  <si>
+    <t>小镇居民</t>
+  </si>
+  <si>
+    <t>小镇上的居民，在杰克、莉莉和巴克的帮助下，最终过上了幸福美满的生活。</t>
   </si>
 </sst>
 </file>
@@ -435,112 +381,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
